--- a/Summary_statistics_for_Thesis.xlsx
+++ b/Summary_statistics_for_Thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c22f1ca899110f3/Dokumente/GitHub/Masterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_1439DF40C043EADFE54878D6425DCE3A8747DF10" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{92613D71-2D37-4467-850F-89C9DAAFCA7C}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_1439DF40C043EADFE54878D6425DCE3A8747DF10" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{38158C4E-305A-4B81-94A5-137A466617A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>USD Future</t>
   </si>
@@ -58,15 +49,6 @@
     <t>Nasdaq 100</t>
   </si>
   <si>
-    <t>DJIA</t>
-  </si>
-  <si>
-    <t>Russell 2000</t>
-  </si>
-  <si>
-    <t>S&amp;P 400</t>
-  </si>
-  <si>
     <t>S&amp;P Canada 60</t>
   </si>
   <si>
@@ -85,27 +67,15 @@
     <t>IBEX 35</t>
   </si>
   <si>
-    <t>MIB 30</t>
-  </si>
-  <si>
-    <t>OMX</t>
-  </si>
-  <si>
     <t>DJ Stoxx 50</t>
   </si>
   <si>
-    <t>SPI 200</t>
-  </si>
-  <si>
     <t>Nikkei 225</t>
   </si>
   <si>
     <t>Hang Seng Index</t>
   </si>
   <si>
-    <t>US MSCI EAFE</t>
-  </si>
-  <si>
     <t>US 2-year</t>
   </si>
   <si>
@@ -115,12 +85,6 @@
     <t>US 10-year</t>
   </si>
   <si>
-    <t>US Ultra 10-year</t>
-  </si>
-  <si>
-    <t>US 30-year</t>
-  </si>
-  <si>
     <t>Brent Crude Oil</t>
   </si>
   <si>
@@ -128,9 +92,6 @@
   </si>
   <si>
     <t>Heating Oil</t>
-  </si>
-  <si>
-    <t>RBOB Gasoline</t>
   </si>
   <si>
     <t>Natural Gas</t>
@@ -235,10 +196,13 @@
     <t>Long Gilt</t>
   </si>
   <si>
-    <t>Medium Gilt</t>
-  </si>
-  <si>
-    <t>Short Gilt</t>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -246,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -358,7 +322,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -666,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,27 +651,27 @@
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -718,7 +682,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="9">
         <v>6446</v>
@@ -741,7 +705,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9">
         <v>6342</v>
@@ -764,7 +728,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="9">
         <v>6343</v>
@@ -787,7 +751,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="9">
         <v>6343</v>
@@ -810,7 +774,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="9">
         <v>6050</v>
@@ -833,7 +797,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="9">
         <v>6342</v>
@@ -856,7 +820,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="9">
         <v>6345</v>
@@ -888,7 +852,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="15"/>
@@ -899,7 +863,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="9">
         <v>6340</v>
@@ -922,7 +886,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="9">
         <v>6226</v>
@@ -945,1260 +909,984 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="9">
-        <v>5484</v>
+        <v>6107</v>
       </c>
       <c r="C14" s="15">
-        <v>5608.21</v>
+        <v>162.32024000000001</v>
       </c>
       <c r="D14" s="15">
-        <v>38282.71</v>
+        <v>1076.0941700000001</v>
       </c>
       <c r="E14" s="10">
-        <v>37351</v>
+        <v>36411</v>
       </c>
       <c r="F14" s="13">
-        <v>8.1536435484381581E-2</v>
+        <v>8.1463591396880364E-2</v>
       </c>
       <c r="G14" s="13">
-        <v>0.1841369595348126</v>
+        <v>0.22232893482475299</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9">
-        <v>1633</v>
+        <v>6406</v>
       </c>
       <c r="C15" s="15">
-        <v>1033.8800000000001</v>
+        <v>3309.3990899999999</v>
       </c>
       <c r="D15" s="15">
-        <v>2557.7199999999998</v>
+        <v>10362.264429999999</v>
       </c>
       <c r="E15" s="10">
-        <v>42927</v>
+        <v>36164</v>
       </c>
       <c r="F15" s="13">
-        <v>8.1157792717443847E-2</v>
+        <v>3.0893622612419829E-2</v>
       </c>
       <c r="G15" s="13">
-        <v>0.25049826635504718</v>
+        <v>0.2111691926664116</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="9">
-        <v>5547</v>
+        <v>6368</v>
       </c>
       <c r="C16" s="15">
-        <v>386.66</v>
+        <v>3124.02412</v>
       </c>
       <c r="D16" s="15">
-        <v>3036.65</v>
+        <v>19979.12617</v>
       </c>
       <c r="E16" s="10">
-        <v>37285</v>
+        <v>36164</v>
       </c>
       <c r="F16" s="13">
-        <v>0.10000240250945661</v>
+        <v>5.8122655127888868E-2</v>
       </c>
       <c r="G16" s="13">
-        <v>0.22162646338003969</v>
+        <v>0.2467528462652426</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="9">
-        <v>6107</v>
+        <v>6354</v>
       </c>
       <c r="C17" s="15">
-        <v>162.32024000000001</v>
+        <v>1704.2439400000001</v>
       </c>
       <c r="D17" s="15">
-        <v>1076.0941700000001</v>
+        <v>13548.268959999999</v>
       </c>
       <c r="E17" s="10">
-        <v>36411</v>
+        <v>36164</v>
       </c>
       <c r="F17" s="13">
-        <v>8.1463591396880364E-2</v>
+        <v>7.0353322085381489E-2</v>
       </c>
       <c r="G17" s="13">
-        <v>0.22232893482475299</v>
+        <v>0.18844883889312569</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="9">
-        <v>6406</v>
+        <v>6415</v>
       </c>
       <c r="C18" s="15">
-        <v>3309.3990899999999</v>
+        <v>1656.97468</v>
       </c>
       <c r="D18" s="15">
-        <v>10362.264429999999</v>
+        <v>8427.0292499999996</v>
       </c>
       <c r="E18" s="10">
-        <v>36164</v>
+        <v>36165</v>
       </c>
       <c r="F18" s="13">
-        <v>3.0893622612419829E-2</v>
+        <v>6.5868714669546025E-2</v>
       </c>
       <c r="G18" s="13">
-        <v>0.2111691926664116</v>
+        <v>0.24319661688131219</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="9">
-        <v>6368</v>
+        <v>6359</v>
       </c>
       <c r="C19" s="15">
-        <v>3124.02412</v>
+        <v>2788.8587900000002</v>
       </c>
       <c r="D19" s="15">
-        <v>19979.12617</v>
+        <v>12647.020109999999</v>
       </c>
       <c r="E19" s="10">
         <v>36164</v>
       </c>
       <c r="F19" s="13">
-        <v>5.8122655127888868E-2</v>
+        <v>5.0220227217671443E-2</v>
       </c>
       <c r="G19" s="13">
-        <v>0.2467528462652426</v>
+        <v>0.25298448275877339</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="9">
-        <v>6354</v>
+        <v>6368</v>
       </c>
       <c r="C20" s="15">
-        <v>1704.2439400000001</v>
+        <v>1202.11438</v>
       </c>
       <c r="D20" s="15">
-        <v>13548.268959999999</v>
+        <v>5067.2115000000003</v>
       </c>
       <c r="E20" s="10">
         <v>36164</v>
       </c>
       <c r="F20" s="13">
-        <v>7.0353322085381489E-2</v>
+        <v>5.6028350640261952E-2</v>
       </c>
       <c r="G20" s="13">
-        <v>0.18844883889312569</v>
+        <v>0.25243947494465913</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="9">
-        <v>6415</v>
+        <v>6129</v>
       </c>
       <c r="C21" s="15">
-        <v>1656.97468</v>
+        <v>47.553899999999999</v>
       </c>
       <c r="D21" s="15">
-        <v>8427.0292499999996</v>
+        <v>271.72930000000002</v>
       </c>
       <c r="E21" s="10">
-        <v>36165</v>
+        <v>36164</v>
       </c>
       <c r="F21" s="13">
-        <v>6.5868714669546025E-2</v>
+        <v>6.9135397869749482E-2</v>
       </c>
       <c r="G21" s="13">
-        <v>0.24319661688131219</v>
+        <v>0.23886441650938281</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="9">
-        <v>6359</v>
+        <v>6191</v>
       </c>
       <c r="C22" s="15">
-        <v>2788.8587900000002</v>
+        <v>725.17523000000006</v>
       </c>
       <c r="D22" s="15">
-        <v>12647.020109999999</v>
+        <v>3836.54817</v>
       </c>
       <c r="E22" s="10">
         <v>36164</v>
       </c>
       <c r="F22" s="13">
-        <v>5.0220227217671443E-2</v>
+        <v>6.8154756710146827E-2</v>
       </c>
       <c r="G22" s="13">
-        <v>0.25298448275877339</v>
+        <v>0.24966327055553039</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9">
-        <v>5027</v>
-      </c>
-      <c r="C23" s="15">
-        <v>9833.3626000000004</v>
-      </c>
-      <c r="D23" s="15">
-        <v>36616.623489999998</v>
-      </c>
-      <c r="E23" s="10">
-        <v>38069</v>
-      </c>
-      <c r="F23" s="13">
-        <v>6.3704899234439713E-2</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0.26300518058684957</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9">
-        <v>4749</v>
-      </c>
-      <c r="C24" s="15">
-        <v>43.365200000000002</v>
-      </c>
-      <c r="D24" s="15">
-        <v>272.72161999999997</v>
-      </c>
-      <c r="E24" s="10">
-        <v>38398</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0.1017391874052584</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0.28134489840541982</v>
-      </c>
+      <c r="A24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" s="9">
-        <v>6368</v>
+        <v>6297</v>
       </c>
       <c r="C25" s="15">
-        <v>1202.11438</v>
+        <v>84.12890625</v>
       </c>
       <c r="D25" s="15">
-        <v>5067.2115000000003</v>
+        <v>111.125</v>
       </c>
       <c r="E25" s="10">
         <v>36164</v>
       </c>
       <c r="F25" s="13">
-        <v>5.6028350640261952E-2</v>
+        <v>6.8283583483790414E-3</v>
       </c>
       <c r="G25" s="13">
-        <v>0.25243947494465913</v>
+        <v>1.5962730702274469E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9">
-        <v>6074</v>
+        <v>6294</v>
       </c>
       <c r="C26" s="15">
-        <v>1222.55576</v>
+        <v>66.6171875</v>
       </c>
       <c r="D26" s="15">
-        <v>5567.1991099999996</v>
+        <v>126.671875</v>
       </c>
       <c r="E26" s="10">
-        <v>36649</v>
+        <v>36164</v>
       </c>
       <c r="F26" s="13">
-        <v>7.2992966195499484E-2</v>
+        <v>1.7377380540778611E-2</v>
       </c>
       <c r="G26" s="13">
-        <v>0.22612792643783511</v>
+        <v>3.9734268418572673E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" s="9">
-        <v>6129</v>
+        <v>6289</v>
       </c>
       <c r="C27" s="15">
-        <v>47.553899999999999</v>
+        <v>56.515625</v>
       </c>
       <c r="D27" s="15">
-        <v>271.72930000000002</v>
+        <v>139</v>
       </c>
       <c r="E27" s="10">
         <v>36164</v>
       </c>
       <c r="F27" s="13">
-        <v>6.9135397869749482E-2</v>
+        <v>2.50245391094546E-2</v>
       </c>
       <c r="G27" s="13">
-        <v>0.23886441650938281</v>
+        <v>6.0278244626994978E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B28" s="9">
-        <v>6191</v>
+        <v>6410</v>
       </c>
       <c r="C28" s="15">
-        <v>725.17523000000006</v>
+        <v>85.943240000000003</v>
       </c>
       <c r="D28" s="15">
-        <v>3836.54817</v>
+        <v>175.43790999999999</v>
       </c>
       <c r="E28" s="10">
         <v>36164</v>
       </c>
       <c r="F28" s="13">
-        <v>6.8154756710146827E-2</v>
+        <v>1.1551299682894599E-2</v>
       </c>
       <c r="G28" s="13">
-        <v>0.24966327055553039</v>
+        <v>0.1118009681762117</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B29" s="9">
-        <v>3690</v>
+        <v>6372</v>
       </c>
       <c r="C29" s="15">
-        <v>1078.8579999999999</v>
+        <v>102.74366000000001</v>
       </c>
       <c r="D29" s="15">
-        <v>2436.9850000000001</v>
+        <v>157.64940999999999</v>
       </c>
       <c r="E29" s="10">
-        <v>40065</v>
+        <v>36164</v>
       </c>
       <c r="F29" s="13">
-        <v>5.795813802301799E-2</v>
+        <v>3.6216474464178042E-3</v>
       </c>
       <c r="G29" s="13">
-        <v>0.19067907655340591</v>
+        <v>7.7701220297964418E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="9">
+        <v>6370</v>
+      </c>
+      <c r="C30" s="15">
+        <v>77.283199999999994</v>
+      </c>
+      <c r="D30" s="15">
+        <v>133.88682</v>
+      </c>
+      <c r="E30" s="10">
+        <v>36164</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1.6075791791461829E-2</v>
+      </c>
+      <c r="G30" s="13">
+        <v>3.3636278894556268E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="9">
+        <v>6371</v>
+      </c>
+      <c r="C31" s="15">
+        <v>56.874009999999998</v>
+      </c>
+      <c r="D31" s="15">
+        <v>204.92841999999999</v>
+      </c>
+      <c r="E31" s="10">
+        <v>36164</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2.8178040661734391E-2</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.1088519201428849</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B32" s="9">
-        <v>6297</v>
+        <v>6345</v>
       </c>
       <c r="C32" s="15">
-        <v>84.12890625</v>
+        <v>54.93</v>
       </c>
       <c r="D32" s="15">
-        <v>111.125</v>
+        <v>234.93</v>
       </c>
       <c r="E32" s="10">
         <v>36164</v>
       </c>
       <c r="F32" s="13">
-        <v>6.8283583483790414E-3</v>
+        <v>3.7696089862732443E-2</v>
       </c>
       <c r="G32" s="13">
-        <v>1.5962730702274469E-2</v>
+        <v>0.1240022879226777</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="9">
-        <v>6294</v>
-      </c>
-      <c r="C33" s="15">
-        <v>66.6171875</v>
-      </c>
-      <c r="D33" s="15">
-        <v>126.671875</v>
-      </c>
-      <c r="E33" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F33" s="13">
-        <v>1.7377380540778611E-2</v>
-      </c>
-      <c r="G33" s="13">
-        <v>3.9734268418572673E-2</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="9">
-        <v>6289</v>
-      </c>
-      <c r="C34" s="15">
-        <v>56.515625</v>
-      </c>
-      <c r="D34" s="15">
-        <v>139</v>
-      </c>
-      <c r="E34" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F34" s="13">
-        <v>2.50245391094546E-2</v>
-      </c>
-      <c r="G34" s="13">
-        <v>6.0278244626994978E-2</v>
-      </c>
+      <c r="A34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B35" s="9">
-        <v>2009</v>
+        <v>6414</v>
       </c>
       <c r="C35" s="15">
-        <v>108.125</v>
+        <v>7.98</v>
       </c>
       <c r="D35" s="15">
-        <v>155.015625</v>
+        <v>188.84</v>
       </c>
       <c r="E35" s="10">
-        <v>42381</v>
+        <v>36164</v>
       </c>
       <c r="F35" s="13">
-        <v>-9.1678073932477313E-3</v>
+        <v>0.15103714116306199</v>
       </c>
       <c r="G35" s="13">
-        <v>7.3067519921285545E-2</v>
+        <v>0.36094945771374259</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B36" s="9">
-        <v>3524</v>
+        <v>6242</v>
       </c>
       <c r="C36" s="15">
-        <v>100.140625</v>
+        <v>-33.880000000000003</v>
       </c>
       <c r="D36" s="15">
-        <v>236.515625</v>
+        <v>466.1</v>
       </c>
       <c r="E36" s="10">
-        <v>40190</v>
+        <v>36164</v>
       </c>
       <c r="F36" s="13">
-        <v>2.9449292801931239E-2</v>
+        <v>-3.3259202014774503E-2</v>
       </c>
       <c r="G36" s="13">
-        <v>0.14489865836839191</v>
+        <v>0.78016929419830572</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B37" s="9">
-        <v>3633</v>
+        <v>6241</v>
       </c>
       <c r="C37" s="15">
-        <v>93.42</v>
+        <v>0.15049000000000001</v>
       </c>
       <c r="D37" s="15">
-        <v>104.28</v>
+        <v>3.1736800000000001</v>
       </c>
       <c r="E37" s="10">
-        <v>40141</v>
+        <v>36164</v>
       </c>
       <c r="F37" s="13">
-        <v>2.3077410299039931E-5</v>
+        <v>0.17288480472059989</v>
       </c>
       <c r="G37" s="13">
-        <v>1.6030982100036919E-2</v>
+        <v>0.36236774865989302</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B38" s="9">
-        <v>3633</v>
+        <v>6280</v>
       </c>
       <c r="C38" s="15">
-        <v>89.41</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="D38" s="15">
-        <v>118.57</v>
+        <v>4874.6180000000004</v>
       </c>
       <c r="E38" s="10">
-        <v>40141</v>
+        <v>36164</v>
       </c>
       <c r="F38" s="13">
-        <v>9.5123363730273882E-3</v>
+        <v>-0.1084111225123664</v>
       </c>
       <c r="G38" s="13">
-        <v>3.4106094264660873E-2</v>
+        <v>0.53663824643126801</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B39" s="9">
-        <v>6410</v>
+        <v>6282</v>
       </c>
       <c r="C39" s="15">
-        <v>85.943240000000003</v>
+        <v>433.28</v>
       </c>
       <c r="D39" s="15">
-        <v>175.43790999999999</v>
+        <v>2407.38</v>
       </c>
       <c r="E39" s="10">
         <v>36164</v>
       </c>
       <c r="F39" s="13">
-        <v>1.1551299682894599E-2</v>
+        <v>6.8370551972899749E-2</v>
       </c>
       <c r="G39" s="13">
-        <v>0.1118009681762117</v>
+        <v>0.17298142211795611</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B40" s="9">
-        <v>6372</v>
+        <v>6281</v>
       </c>
       <c r="C40" s="15">
-        <v>102.74366000000001</v>
+        <v>6.8840000000000003</v>
       </c>
       <c r="D40" s="15">
-        <v>157.64940999999999</v>
+        <v>63.091000000000001</v>
       </c>
       <c r="E40" s="10">
         <v>36164</v>
       </c>
       <c r="F40" s="13">
-        <v>3.6216474464178042E-3</v>
+        <v>8.395423513207774E-2</v>
       </c>
       <c r="G40" s="13">
-        <v>7.7701220297964418E-2</v>
+        <v>0.30483971130306731</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B41" s="9">
-        <v>6370</v>
+        <v>6280</v>
       </c>
       <c r="C41" s="15">
-        <v>77.283199999999994</v>
+        <v>331.79</v>
       </c>
       <c r="D41" s="15">
-        <v>133.88682</v>
+        <v>2828.33</v>
       </c>
       <c r="E41" s="10">
         <v>36164</v>
       </c>
       <c r="F41" s="13">
-        <v>1.6075791791461829E-2</v>
+        <v>7.2041565041482902E-2</v>
       </c>
       <c r="G41" s="13">
-        <v>3.3636278894556268E-2</v>
+        <v>0.24651276384982179</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B42" s="9">
-        <v>6371</v>
+        <v>6279</v>
       </c>
       <c r="C42" s="15">
-        <v>56.874009999999998</v>
+        <v>184.87</v>
       </c>
       <c r="D42" s="15">
-        <v>204.92841999999999</v>
+        <v>3092.23</v>
       </c>
       <c r="E42" s="10">
         <v>36164</v>
       </c>
       <c r="F42" s="13">
-        <v>2.8178040661734391E-2</v>
+        <v>9.3537221006109214E-2</v>
       </c>
       <c r="G42" s="13">
-        <v>0.1088519201428849</v>
+        <v>0.35227728159911809</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B43" s="9">
-        <v>6345</v>
+        <v>6281</v>
       </c>
       <c r="C43" s="15">
-        <v>54.93</v>
+        <v>0.76490999999999998</v>
       </c>
       <c r="D43" s="15">
-        <v>234.93</v>
+        <v>5.6881399999999998</v>
       </c>
       <c r="E43" s="10">
         <v>36164</v>
       </c>
       <c r="F43" s="13">
-        <v>3.7696089862732443E-2</v>
+        <v>8.9418579455476474E-2</v>
       </c>
       <c r="G43" s="13">
-        <v>0.1240022879226777</v>
+        <v>0.26314225983542638</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="9">
+        <v>6290</v>
+      </c>
+      <c r="C44" s="15">
+        <v>2906.36</v>
+      </c>
+      <c r="D44" s="15">
+        <v>64942.41</v>
+      </c>
+      <c r="E44" s="10">
+        <v>36164</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0.14080235675146191</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0.38618987072340111</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="A45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="9">
+        <v>6308</v>
+      </c>
+      <c r="C45" s="15">
+        <v>907.96</v>
+      </c>
+      <c r="D45" s="15">
+        <v>5545.52</v>
+      </c>
+      <c r="E45" s="10">
+        <v>36164</v>
+      </c>
+      <c r="F45" s="13">
+        <v>6.1180011911537303E-2</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.28559799736930308</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="9">
-        <v>6414</v>
+        <v>6301</v>
       </c>
       <c r="C46" s="15">
-        <v>7.98</v>
+        <v>0.19259999999999999</v>
       </c>
       <c r="D46" s="15">
-        <v>188.84</v>
+        <v>1.21915</v>
       </c>
       <c r="E46" s="10">
         <v>36164</v>
       </c>
       <c r="F46" s="13">
-        <v>0.15103714116306199</v>
+        <v>2.8676359350356489E-2</v>
       </c>
       <c r="G46" s="13">
-        <v>0.36094945771374259</v>
+        <v>0.26155138135133998</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="9">
-        <v>6242</v>
+        <v>6300</v>
       </c>
       <c r="C47" s="15">
-        <v>-33.880000000000003</v>
+        <v>1.0503400000000001</v>
       </c>
       <c r="D47" s="15">
-        <v>466.1</v>
+        <v>2.18845</v>
       </c>
       <c r="E47" s="10">
         <v>36164</v>
       </c>
       <c r="F47" s="13">
-        <v>-3.3259202014774503E-2</v>
+        <v>3.0663488820687632E-2</v>
       </c>
       <c r="G47" s="13">
-        <v>0.78016929419830572</v>
+        <v>0.1543205306572642</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="9">
-        <v>6241</v>
+        <v>6298</v>
       </c>
       <c r="C48" s="15">
-        <v>0.15049000000000001</v>
+        <v>1.2161200000000001</v>
       </c>
       <c r="D48" s="15">
-        <v>3.1736800000000001</v>
+        <v>3.9991500000000002</v>
       </c>
       <c r="E48" s="10">
         <v>36164</v>
       </c>
       <c r="F48" s="13">
-        <v>0.17288480472059989</v>
+        <v>3.4532294774284919E-2</v>
       </c>
       <c r="G48" s="13">
-        <v>0.36236774865989302</v>
+        <v>0.14413075896784519</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="9">
-        <v>4563</v>
+        <v>6298</v>
       </c>
       <c r="C49" s="15">
-        <v>0.24776000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D49" s="15">
-        <v>2.6296400000000002</v>
+        <v>98.045379999999994</v>
       </c>
       <c r="E49" s="10">
-        <v>38629</v>
+        <v>36164</v>
       </c>
       <c r="F49" s="13">
-        <v>0.14507789158126799</v>
+        <v>-6.0899801673132227E-2</v>
       </c>
       <c r="G49" s="13">
-        <v>0.39934302887357398</v>
+        <v>0.30799811848391823</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="9">
-        <v>6280</v>
+        <v>6297</v>
       </c>
       <c r="C50" s="15">
-        <v>2.2050000000000001</v>
+        <v>2.0352800000000002</v>
       </c>
       <c r="D50" s="15">
-        <v>4874.6180000000004</v>
+        <v>20.24192</v>
       </c>
       <c r="E50" s="10">
         <v>36164</v>
       </c>
       <c r="F50" s="13">
-        <v>-0.1084111225123664</v>
+        <v>-2.16100726656616E-2</v>
       </c>
       <c r="G50" s="13">
-        <v>0.53663824643126801</v>
+        <v>0.26275073629959028</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="9">
-        <v>6282</v>
+        <v>6298</v>
       </c>
       <c r="C51" s="15">
-        <v>433.28</v>
+        <v>1.27935</v>
       </c>
       <c r="D51" s="15">
-        <v>2407.38</v>
+        <v>6.5759299999999996</v>
       </c>
       <c r="E51" s="10">
         <v>36164</v>
       </c>
       <c r="F51" s="13">
-        <v>6.8370551972899749E-2</v>
+        <v>7.1823019221363457E-2</v>
       </c>
       <c r="G51" s="13">
-        <v>0.17298142211795611</v>
+        <v>0.3122561535637523</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="9">
-        <v>6281</v>
+        <v>6296</v>
       </c>
       <c r="C52" s="15">
-        <v>6.8840000000000003</v>
+        <v>1.85869</v>
       </c>
       <c r="D52" s="15">
-        <v>63.091000000000001</v>
+        <v>15.340059999999999</v>
       </c>
       <c r="E52" s="10">
         <v>36164</v>
       </c>
       <c r="F52" s="13">
-        <v>8.395423513207774E-2</v>
+        <v>8.5837858975329945E-2</v>
       </c>
       <c r="G52" s="13">
-        <v>0.30483971130306731</v>
+        <v>0.22987887871041171</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="9">
-        <v>6280</v>
+        <v>6299</v>
       </c>
       <c r="C53" s="15">
-        <v>331.79</v>
+        <v>0.14704999999999999</v>
       </c>
       <c r="D53" s="15">
-        <v>2828.33</v>
+        <v>0.77320999999999995</v>
       </c>
       <c r="E53" s="10">
         <v>36164</v>
       </c>
       <c r="F53" s="13">
-        <v>7.2041565041482902E-2</v>
+        <v>3.0473408448639161E-2</v>
       </c>
       <c r="G53" s="13">
-        <v>0.24651276384982179</v>
+        <v>0.24480504951065729</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="9">
-        <v>6279</v>
+        <v>6315</v>
       </c>
       <c r="C54" s="15">
-        <v>184.87</v>
+        <v>0.66540999999999995</v>
       </c>
       <c r="D54" s="15">
-        <v>3092.23</v>
+        <v>4.258</v>
       </c>
       <c r="E54" s="10">
         <v>36164</v>
       </c>
       <c r="F54" s="13">
-        <v>9.3537221006109214E-2</v>
+        <v>6.9014082563058965E-2</v>
       </c>
       <c r="G54" s="13">
-        <v>0.35227728159911809</v>
+        <v>0.31305931213212729</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="9">
-        <v>6281</v>
+        <v>6271</v>
       </c>
       <c r="C55" s="15">
-        <v>0.76490999999999998</v>
+        <v>1434</v>
       </c>
       <c r="D55" s="15">
-        <v>5.6881399999999998</v>
+        <v>4953</v>
       </c>
       <c r="E55" s="10">
         <v>36164</v>
       </c>
       <c r="F55" s="13">
-        <v>8.9418579455476474E-2</v>
+        <v>4.4493979441769187E-2</v>
       </c>
       <c r="G55" s="13">
-        <v>0.26314225983542638</v>
+        <v>0.29208511535607778</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="9">
-        <v>6290</v>
+        <v>6270</v>
       </c>
       <c r="C56" s="15">
-        <v>2906.36</v>
+        <v>1.04461</v>
       </c>
       <c r="D56" s="15">
-        <v>64942.41</v>
+        <v>31.145250000000001</v>
       </c>
       <c r="E56" s="10">
         <v>36164</v>
       </c>
       <c r="F56" s="13">
-        <v>0.14080235675146191</v>
+        <v>-5.1896438518499732E-2</v>
       </c>
       <c r="G56" s="13">
-        <v>0.38618987072340111</v>
+        <v>0.34392886733186251</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="9">
-        <v>6308</v>
+        <v>6270</v>
       </c>
       <c r="C57" s="15">
-        <v>907.96</v>
+        <v>6.9589999999999999E-2</v>
       </c>
       <c r="D57" s="15">
-        <v>5545.52</v>
+        <v>0.53334000000000004</v>
       </c>
       <c r="E57" s="10">
         <v>36164</v>
       </c>
       <c r="F57" s="13">
-        <v>6.1180011911537303E-2</v>
+        <v>7.1762564592917577E-2</v>
       </c>
       <c r="G57" s="13">
-        <v>0.28559799736930308</v>
+        <v>0.31911170193555238</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="9">
-        <v>6301</v>
+        <v>6309</v>
       </c>
       <c r="C58" s="15">
-        <v>0.19259999999999999</v>
+        <v>0.39019999999999999</v>
       </c>
       <c r="D58" s="15">
-        <v>1.21915</v>
+        <v>3.8673000000000002</v>
       </c>
       <c r="E58" s="10">
         <v>36164</v>
       </c>
       <c r="F58" s="13">
-        <v>2.8676359350356489E-2</v>
+        <v>-2.1364805165029779E-2</v>
       </c>
       <c r="G58" s="13">
-        <v>0.26155138135133998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="9">
-        <v>6300</v>
-      </c>
-      <c r="C59" s="15">
-        <v>1.0503400000000001</v>
-      </c>
-      <c r="D59" s="15">
-        <v>2.18845</v>
-      </c>
-      <c r="E59" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F59" s="13">
-        <v>3.0663488820687632E-2</v>
-      </c>
-      <c r="G59" s="13">
-        <v>0.1543205306572642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="9">
-        <v>6298</v>
-      </c>
-      <c r="C60" s="15">
-        <v>1.2161200000000001</v>
-      </c>
-      <c r="D60" s="15">
-        <v>3.9991500000000002</v>
-      </c>
-      <c r="E60" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F60" s="13">
-        <v>3.4532294774284919E-2</v>
-      </c>
-      <c r="G60" s="13">
-        <v>0.14413075896784519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="9">
-        <v>6298</v>
-      </c>
-      <c r="C61" s="15">
-        <v>5.61</v>
-      </c>
-      <c r="D61" s="15">
-        <v>98.045379999999994</v>
-      </c>
-      <c r="E61" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F61" s="13">
-        <v>-6.0899801673132227E-2</v>
-      </c>
-      <c r="G61" s="13">
-        <v>0.30799811848391823</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="9">
-        <v>6297</v>
-      </c>
-      <c r="C62" s="15">
-        <v>2.0352800000000002</v>
-      </c>
-      <c r="D62" s="15">
-        <v>20.24192</v>
-      </c>
-      <c r="E62" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F62" s="13">
-        <v>-2.16100726656616E-2</v>
-      </c>
-      <c r="G62" s="13">
-        <v>0.26275073629959028</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="9">
-        <v>6298</v>
-      </c>
-      <c r="C63" s="15">
-        <v>1.27935</v>
-      </c>
-      <c r="D63" s="15">
-        <v>6.5759299999999996</v>
-      </c>
-      <c r="E63" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F63" s="13">
-        <v>7.1823019221363457E-2</v>
-      </c>
-      <c r="G63" s="13">
-        <v>0.3122561535637523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="9">
-        <v>6296</v>
-      </c>
-      <c r="C64" s="15">
-        <v>1.85869</v>
-      </c>
-      <c r="D64" s="15">
-        <v>15.340059999999999</v>
-      </c>
-      <c r="E64" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F64" s="13">
-        <v>8.5837858975329945E-2</v>
-      </c>
-      <c r="G64" s="13">
-        <v>0.22987887871041171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="9">
-        <v>6299</v>
-      </c>
-      <c r="C65" s="15">
-        <v>0.14704999999999999</v>
-      </c>
-      <c r="D65" s="15">
-        <v>0.77320999999999995</v>
-      </c>
-      <c r="E65" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F65" s="13">
-        <v>3.0473408448639161E-2</v>
-      </c>
-      <c r="G65" s="13">
-        <v>0.24480504951065729</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="9">
-        <v>6315</v>
-      </c>
-      <c r="C66" s="15">
-        <v>0.66540999999999995</v>
-      </c>
-      <c r="D66" s="15">
-        <v>4.258</v>
-      </c>
-      <c r="E66" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F66" s="13">
-        <v>6.9014082563058965E-2</v>
-      </c>
-      <c r="G66" s="13">
-        <v>0.31305931213212729</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="9">
-        <v>6271</v>
-      </c>
-      <c r="C67" s="15">
-        <v>1434</v>
-      </c>
-      <c r="D67" s="15">
-        <v>4953</v>
-      </c>
-      <c r="E67" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F67" s="13">
-        <v>4.4493979441769187E-2</v>
-      </c>
-      <c r="G67" s="13">
-        <v>0.29208511535607778</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="9">
-        <v>6270</v>
-      </c>
-      <c r="C68" s="15">
-        <v>1.04461</v>
-      </c>
-      <c r="D68" s="15">
-        <v>31.145250000000001</v>
-      </c>
-      <c r="E68" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F68" s="13">
-        <v>-5.1896438518499732E-2</v>
-      </c>
-      <c r="G68" s="13">
-        <v>0.34392886733186251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="9">
-        <v>6270</v>
-      </c>
-      <c r="C69" s="15">
-        <v>6.9589999999999999E-2</v>
-      </c>
-      <c r="D69" s="15">
-        <v>0.53334000000000004</v>
-      </c>
-      <c r="E69" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F69" s="13">
-        <v>7.1762564592917577E-2</v>
-      </c>
-      <c r="G69" s="13">
-        <v>0.31911170193555238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="9">
-        <v>6309</v>
-      </c>
-      <c r="C70" s="15">
-        <v>0.39019999999999999</v>
-      </c>
-      <c r="D70" s="15">
-        <v>3.8673000000000002</v>
-      </c>
-      <c r="E70" s="10">
-        <v>36164</v>
-      </c>
-      <c r="F70" s="13">
-        <v>-2.1364805165029779E-2</v>
-      </c>
-      <c r="G70" s="13">
         <v>0.27144005856604969</v>
       </c>
     </row>
